--- a/MVC_Attendance/wwwroot/Sheets/newfile.xlsx
+++ b/MVC_Attendance/wwwroot/Sheets/newfile.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Email</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Faculty</t>
   </si>
   <si>
-    <t>zu</t>
-  </si>
-  <si>
     <t>Specialization</t>
   </si>
   <si>
@@ -60,16 +57,34 @@
     <t>UniversityID</t>
   </si>
   <si>
-    <t>kasa@hjjj</t>
-  </si>
-  <si>
     <t>sss</t>
   </si>
   <si>
     <t>as</t>
   </si>
   <si>
-    <t>cairo</t>
+    <t>NumberOfAbsences</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>sssa</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>cgfadg@fgrg</t>
+  </si>
+  <si>
+    <t>fhgsr</t>
+  </si>
+  <si>
+    <t>guygfuy</t>
+  </si>
+  <si>
+    <t>ddd</t>
   </si>
 </sst>
 </file>
@@ -452,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -465,69 +480,93 @@
     <col min="4" max="4" width="19.25" customWidth="1"/>
     <col min="5" max="5" width="20.25" customWidth="1"/>
     <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="7.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1">
+        <v>123456788</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>10171077</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>2022</v>
+      </c>
+      <c r="I2">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>123456788</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>10171077</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>2020</v>
-      </c>
-      <c r="H2">
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
-        <v>13</v>
+      <c r="L2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1" display="kasa@hjjj"/>
+    <hyperlink ref="E2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MVC_Attendance/wwwroot/Sheets/newfile.xlsx
+++ b/MVC_Attendance/wwwroot/Sheets/newfile.xlsx
@@ -84,7 +84,7 @@
     <t>guygfuy</t>
   </si>
   <si>
-    <t>ddd</t>
+    <t>dfdgg</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>

--- a/MVC_Attendance/wwwroot/Sheets/newfile.xlsx
+++ b/MVC_Attendance/wwwroot/Sheets/newfile.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>Email</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>dfdgg</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>bb</t>
   </si>
 </sst>
 </file>
@@ -459,7 +465,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -467,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -563,6 +569,82 @@
         <v>18</v>
       </c>
     </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>555</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3">
+        <v>22</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>4444</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>88</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="kasa@hjjj"/>
